--- a/Grammar information/Pronouns.xlsx
+++ b/Grammar information/Pronouns.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391FBEEC-DD64-44E0-9897-C383ED9203B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A29035-6857-497A-B5B9-117F209FB0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="1" r:id="rId1"/>
     <sheet name="Locative" sheetId="2" r:id="rId2"/>
     <sheet name="Demonstrative" sheetId="3" r:id="rId3"/>
     <sheet name="Possessive" sheetId="5" r:id="rId4"/>
+    <sheet name="Genetive markers" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
   <si>
     <t>Class</t>
   </si>
@@ -212,6 +224,33 @@
   </si>
   <si>
     <t>bwe</t>
+  </si>
+  <si>
+    <t>gwa</t>
+  </si>
+  <si>
+    <t>lya</t>
+  </si>
+  <si>
+    <t>kya</t>
+  </si>
+  <si>
+    <t>bya</t>
+  </si>
+  <si>
+    <t>lwa</t>
+  </si>
+  <si>
+    <t>twa</t>
+  </si>
+  <si>
+    <t>bwa</t>
+  </si>
+  <si>
+    <t>kwa</t>
+  </si>
+  <si>
+    <t>gya</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D598C24-FE5E-434D-88BE-7ED83B5F33F0}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,4 +1715,249 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56805AB6-2568-4A60-868E-B3ABAA38AAF5}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("&lt;",A2,".gen&gt;:",B2,"[",A2,"]")</f>
+        <v>&lt;1.gen&gt;:wa[1]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D19" si="0">_xlfn.CONCAT("&lt;",A3,".gen&gt;:",B3,"[",A3,"]")</f>
+        <v>&lt;2.gen&gt;:ba[2]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;3.gen&gt;:gwa[3]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;4.gen&gt;:gya[4]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;4.gen&gt;:ya[4]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;5.gen&gt;:lya[5]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;6.gen&gt;:ga[6]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;7.gen&gt;:kya[7]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;8.gen&gt;:bya[8]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;9.gen&gt;:ya[9]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;10.gen&gt;:za[10]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;11.gen&gt;:lwa[11]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;12.gen&gt;:ka[12]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;13.gen&gt;:twa[13]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;14.gen&gt;:bwa[14]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;15.gen&gt;:kwa[15]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;20.gen&gt;:gwa[20]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;22.gen&gt;:ga[22]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>